--- a/Print/20160309 Proefschriften verdeellijst SPS.xlsx
+++ b/Print/20160309 Proefschriften verdeellijst SPS.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel_personeel" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actueel_personeel">Actueel_personeel!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>S.</t>
   </si>
@@ -245,16 +246,144 @@
   </si>
   <si>
     <t>Total SPS: 33 books</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Mamma Papa</t>
+  </si>
+  <si>
+    <t>Zio Zia</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Martijn</t>
+  </si>
+  <si>
+    <t>prof. Wouters</t>
+  </si>
+  <si>
+    <t>Weijn</t>
+  </si>
+  <si>
+    <t>Piero</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Ns 29</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <t>Ns 31</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Luca Christian</t>
+  </si>
+  <si>
+    <t>Saporito</t>
+  </si>
+  <si>
+    <t>Guglielmelli</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
+  <si>
+    <t>Jochen</t>
+  </si>
+  <si>
+    <t>Taffoni</t>
+  </si>
+  <si>
+    <t>Domenico</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Commettee</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Pirruccio</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Ginny Albe</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Agnese</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Janneke</t>
+  </si>
+  <si>
+    <t>CIRO</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Steffen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -315,12 +444,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,13 +761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,7 +879,7 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -971,7 +1106,7 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1061,4 +1196,282 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <f>COUNTA(A2:O33)</f>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Print/20160309 Proefschriften verdeellijst SPS.xlsx
+++ b/Print/20160309 Proefschriften verdeellijst SPS.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Remote\Thesis\Print\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel_personeel" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Actueel_personeel">Actueel_personeel!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>S.</t>
   </si>
@@ -369,6 +375,44 @@
   </si>
   <si>
     <t>Steffen</t>
+  </si>
+  <si>
+    <t>Bonomi</t>
+  </si>
+  <si>
+    <t>Library 1</t>
+  </si>
+  <si>
+    <t>Library 2</t>
+  </si>
+  <si>
+    <t>Office of Doctoral Presentations and Academic Cerimonies 1</t>
+  </si>
+  <si>
+    <t>Office of Doctoral Presentations and Academic Cerimonies 2</t>
+  </si>
+  <si>
+    <t>Office of Doctoral Presentations and Academic Cerimonies 3</t>
+  </si>
+  <si>
+    <t>Press briefing 1</t>
+  </si>
+  <si>
+    <t>Press briefing 2</t>
+  </si>
+  <si>
+    <t>I've attached a list of the number of theses we would like to receive as the SPS group: 33
+If we need to send out the thesis to panel members, you have to hand those in as well (and a digital list of the correct addresses of the panel members).
+The Dean Bart Smolders is included on this list, but it's preferable that you hand it over in person. 
+The secretary of Bart Smolders is Marlouke Creemers (M.J.G.Creemers@tue.nl). 
+You will need to hand in two hard copies and one digital version at IEC (please see link for further information).
+You will receive a form (statement of addition of dissertation to library collection) which you have to hand in with your invoices, proof of payment and a request for payment (see attachment) at the secretariat.
+And please written proof that your current employer is not reimbursing these costs for you. We will reimburse to a total of € 1500,00  for the printing.  Additional  costs for printing and all other costs are at your own expense.
+Two additional hard copies for CIC (can we send out for you).
+Three hard copies for the office of doctoral presentations and academic ceremonies.
+https://www.tue.nl/en/university/about-the-university/organization/support-services/general-affairs-department/office-of-doctoral-presentations-and-academic-ceremonies/phd-defenses/doctorate-regulations-2015-forms-and-information-brochure-for-doctoral-candidates/
+The link might be familiar to you but is very useful!
+I hope this was enough information for now, otherwise, you know where you can find us.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -455,6 +499,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,7 +600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,15 +1252,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1286,6 +1336,9 @@
       <c r="K3" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1461,17 +1514,586 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B37">
         <f>COUNTA(A2:O33)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Print/20160309 Proefschriften verdeellijst SPS.xlsx
+++ b/Print/20160309 Proefschriften verdeellijst SPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel_personeel" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>S.</t>
   </si>
@@ -414,12 +414,18 @@
 The link might be familiar to you but is very useful!
 I hope this was enough information for now, otherwise, you know where you can find us.</t>
   </si>
+  <si>
+    <t>Sietse</t>
+  </si>
+  <si>
+    <t>Aki</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -429,8 +435,15 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +460,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -485,10 +503,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -505,8 +524,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,14 +1313,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1310,24 +1332,24 @@
       <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="13" t="s">
         <v>112</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="12" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1336,35 +1358,38 @@
       <c r="K3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M4" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1373,169 +1398,172 @@
       <c r="K5" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="7" t="s">
+      <c r="M5" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E12" s="5" t="s">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E13" s="5" t="s">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="5" t="s">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E14" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="5" t="s">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E16" s="5" t="s">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="5" t="s">
+    <row r="17" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="5" t="s">
+    <row r="18" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="5" t="s">
+    <row r="19" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="5" t="s">
+    <row r="20" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="5" t="s">
+    <row r="21" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="5" t="s">
+    <row r="22" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E22" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="5" t="s">
+    <row r="23" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="5" t="s">
+    <row r="24" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E24" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="26" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E26" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="27" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+    <row r="29" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E29" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+    <row r="30" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E30" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+    <row r="31" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E31" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1555,7 +1583,7 @@
       </c>
       <c r="B37">
         <f>COUNTA(A2:O33)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/Print/20160309 Proefschriften verdeellijst SPS.xlsx
+++ b/Print/20160309 Proefschriften verdeellijst SPS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Remote\Thesis\Print\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel_personeel" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="Actueel_personeel">Actueel_personeel!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -396,9 +391,6 @@
   </si>
   <si>
     <t>Press briefing 1</t>
-  </si>
-  <si>
-    <t>Press briefing 2</t>
   </si>
   <si>
     <t>I've attached a list of the number of theses we would like to receive as the SPS group: 33
@@ -419,6 +411,9 @@
   </si>
   <si>
     <t>Aki</t>
+  </si>
+  <si>
+    <t>Stefano</t>
   </si>
 </sst>
 </file>
@@ -518,14 +513,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -587,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1274,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1317,10 +1312,10 @@
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1332,7 +1327,7 @@
       <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>112</v>
       </c>
       <c r="O2" s="8" t="s">
@@ -1343,13 +1338,13 @@
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1358,7 +1353,7 @@
       <c r="K3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1366,30 +1361,30 @@
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>88</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>126</v>
+      <c r="M4" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1398,26 +1393,26 @@
       <c r="K5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>127</v>
+      <c r="M5" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1425,10 +1420,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1436,10 +1431,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1450,7 +1445,7 @@
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -1458,7 +1453,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -1466,7 +1461,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -1474,7 +1469,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -1482,7 +1477,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1490,7 +1485,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -1498,83 +1493,81 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="G16" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E33" s="11" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1583,7 +1576,7 @@
       </c>
       <c r="B37">
         <f>COUNTA(A2:O33)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1603,519 +1596,519 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
